--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/33/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/33/FD_Curve.xlsx
@@ -496,1069 +496,1069 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.73447</v>
+        <v>4.35271</v>
       </c>
       <c r="C6" t="n">
-        <v>3734.47</v>
+        <v>4352.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154973</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.88132</v>
+        <v>4.76017</v>
       </c>
       <c r="C7" t="n">
-        <v>3881.32</v>
+        <v>4760.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185949</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>3.96687</v>
+        <v>5.05469</v>
       </c>
       <c r="C8" t="n">
-        <v>3966.87</v>
+        <v>5054.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216926</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0467</v>
+        <v>5.187060000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>4046.7</v>
+        <v>5187.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247902</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>4.114260000000001</v>
+        <v>5.25201</v>
       </c>
       <c r="C10" t="n">
-        <v>4114.26</v>
+        <v>5252.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.27883</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>4.17794</v>
+        <v>5.299840000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4177.94</v>
+        <v>5299.84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309755</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>4.23311</v>
+        <v>5.340050000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>4233.11</v>
+        <v>5340.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.34068</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>4.2873</v>
+        <v>5.37784</v>
       </c>
       <c r="C13" t="n">
-        <v>4287.3</v>
+        <v>5377.84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371601</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>4.33369</v>
+        <v>5.41251</v>
       </c>
       <c r="C14" t="n">
-        <v>4333.69</v>
+        <v>5412.51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402526</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>4.37536</v>
+        <v>5.44439</v>
       </c>
       <c r="C15" t="n">
-        <v>4375.36</v>
+        <v>5444.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433451</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>4.41549</v>
+        <v>5.47478</v>
       </c>
       <c r="C16" t="n">
-        <v>4415.49</v>
+        <v>5474.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464376</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>4.45317</v>
+        <v>5.503229999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>4453.17</v>
+        <v>5503.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495301</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>4.48749</v>
+        <v>5.53046</v>
       </c>
       <c r="C18" t="n">
-        <v>4487.49</v>
+        <v>5530.46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526226</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>4.51903</v>
+        <v>5.55573</v>
       </c>
       <c r="C19" t="n">
-        <v>4519.03</v>
+        <v>5555.73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557151</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>4.54821</v>
+        <v>5.57943</v>
       </c>
       <c r="C20" t="n">
-        <v>4548.21</v>
+        <v>5579.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588076</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>4.57521</v>
+        <v>5.60286</v>
       </c>
       <c r="C21" t="n">
-        <v>4575.21</v>
+        <v>5602.86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191179999999999</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>4.599760000000001</v>
+        <v>5.62487</v>
       </c>
       <c r="C22" t="n">
-        <v>4599.76</v>
+        <v>5624.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650291</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>4.62244</v>
+        <v>5.646310000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4622.44</v>
+        <v>5646.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681468</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>4.64308</v>
+        <v>5.666729999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4643.08</v>
+        <v>5666.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126400000000001</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>4.66167</v>
+        <v>5.68655</v>
       </c>
       <c r="C25" t="n">
-        <v>4661.67</v>
+        <v>5686.55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438129999999999</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>4.678290000000001</v>
+        <v>5.70548</v>
       </c>
       <c r="C26" t="n">
-        <v>4678.29</v>
+        <v>5705.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.77499</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>4.69301</v>
+        <v>5.7239</v>
       </c>
       <c r="C27" t="n">
-        <v>4693.01</v>
+        <v>5723.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806162</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>4.70575</v>
+        <v>5.74159</v>
       </c>
       <c r="C28" t="n">
-        <v>4705.75</v>
+        <v>5741.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373390000000001</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>4.71658</v>
+        <v>5.75878</v>
       </c>
       <c r="C29" t="n">
-        <v>4716.58</v>
+        <v>5758.78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868512</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>4.725300000000001</v>
+        <v>5.77538</v>
       </c>
       <c r="C30" t="n">
-        <v>4725.3</v>
+        <v>5775.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899684</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>4.73197</v>
+        <v>5.791399999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>4731.97</v>
+        <v>5791.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930861</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>4.736470000000001</v>
+        <v>5.807</v>
       </c>
       <c r="C32" t="n">
-        <v>4736.47</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620339999999999</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>4.738560000000001</v>
+        <v>5.82213</v>
       </c>
       <c r="C33" t="n">
-        <v>4738.56</v>
+        <v>5822.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993207</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>4.73814</v>
+        <v>5.83679</v>
       </c>
       <c r="C34" t="n">
-        <v>4738.14</v>
+        <v>5836.79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02425</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>4.73499</v>
+        <v>5.851020000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>4734.99</v>
+        <v>5851.02</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05522</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>4.72919</v>
+        <v>5.864890000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>4729.19</v>
+        <v>5864.89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>4.72081</v>
+        <v>5.87838</v>
       </c>
       <c r="C37" t="n">
-        <v>4720.81</v>
+        <v>5878.38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11715</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>4.70994</v>
+        <v>5.89149</v>
       </c>
       <c r="C38" t="n">
-        <v>4709.94</v>
+        <v>5891.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14812</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>4.69661</v>
+        <v>5.90424</v>
       </c>
       <c r="C39" t="n">
-        <v>4696.61</v>
+        <v>5904.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17909</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>4.68099</v>
+        <v>5.91665</v>
       </c>
       <c r="C40" t="n">
-        <v>4680.99</v>
+        <v>5916.65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21006</v>
+        <v>1.21287</v>
       </c>
       <c r="B41" t="n">
-        <v>4.66346</v>
+        <v>5.92873</v>
       </c>
       <c r="C41" t="n">
-        <v>4663.46</v>
+        <v>5928.73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24102</v>
+        <v>1.24425</v>
       </c>
       <c r="B42" t="n">
-        <v>4.64416</v>
+        <v>5.94049</v>
       </c>
       <c r="C42" t="n">
-        <v>4644.16</v>
+        <v>5940.49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27199</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>4.62315</v>
+        <v>5.95195</v>
       </c>
       <c r="C43" t="n">
-        <v>4623.15</v>
+        <v>5951.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30296</v>
+        <v>1.30701</v>
       </c>
       <c r="B44" t="n">
-        <v>4.60049</v>
+        <v>5.96313</v>
       </c>
       <c r="C44" t="n">
-        <v>4600.49</v>
+        <v>5963.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33393</v>
+        <v>1.33839</v>
       </c>
       <c r="B45" t="n">
-        <v>4.57652</v>
+        <v>5.97402</v>
       </c>
       <c r="C45" t="n">
-        <v>4576.52</v>
+        <v>5974.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3649</v>
+        <v>1.36965</v>
       </c>
       <c r="B46" t="n">
-        <v>4.55097</v>
+        <v>5.98462</v>
       </c>
       <c r="C46" t="n">
-        <v>4550.97</v>
+        <v>5984.62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39586</v>
+        <v>1.40062</v>
       </c>
       <c r="B47" t="n">
-        <v>4.524</v>
+        <v>5.99492</v>
       </c>
       <c r="C47" t="n">
-        <v>4524</v>
+        <v>5994.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42683</v>
+        <v>1.43159</v>
       </c>
       <c r="B48" t="n">
-        <v>4.49553</v>
+        <v>6.004960000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>4495.53</v>
+        <v>6004.96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4578</v>
+        <v>1.46256</v>
       </c>
       <c r="B49" t="n">
-        <v>4.46496</v>
+        <v>6.014760000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>4464.96</v>
+        <v>6014.76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48877</v>
+        <v>1.49353</v>
       </c>
       <c r="B50" t="n">
-        <v>4.43201</v>
+        <v>6.024310000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>4432.01</v>
+        <v>6024.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51974</v>
+        <v>1.52449</v>
       </c>
       <c r="B51" t="n">
-        <v>4.39672</v>
+        <v>6.03362</v>
       </c>
       <c r="C51" t="n">
-        <v>4396.72</v>
+        <v>6033.62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5507</v>
+        <v>1.55546</v>
       </c>
       <c r="B52" t="n">
-        <v>4.35936</v>
+        <v>6.04267</v>
       </c>
       <c r="C52" t="n">
-        <v>4359.36</v>
+        <v>6042.67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58167</v>
+        <v>1.58643</v>
       </c>
       <c r="B53" t="n">
-        <v>4.31989</v>
+        <v>6.05149</v>
       </c>
       <c r="C53" t="n">
-        <v>4319.89</v>
+        <v>6051.49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61231</v>
+        <v>1.61739</v>
       </c>
       <c r="B54" t="n">
-        <v>4.27844</v>
+        <v>6.06007</v>
       </c>
       <c r="C54" t="n">
-        <v>4278.44</v>
+        <v>6060.07</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64302</v>
+        <v>1.64836</v>
       </c>
       <c r="B55" t="n">
-        <v>4.2348</v>
+        <v>6.06844</v>
       </c>
       <c r="C55" t="n">
-        <v>4234.8</v>
+        <v>6068.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67459</v>
+        <v>1.67933</v>
       </c>
       <c r="B56" t="n">
-        <v>4.18817</v>
+        <v>6.07658</v>
       </c>
       <c r="C56" t="n">
-        <v>4188.17</v>
+        <v>6076.58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70575</v>
+        <v>1.71004</v>
       </c>
       <c r="B57" t="n">
-        <v>4.13966</v>
+        <v>6.084540000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>4139.66</v>
+        <v>6084.54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73655</v>
+        <v>1.7406</v>
       </c>
       <c r="B58" t="n">
-        <v>4.08988</v>
+        <v>6.09228</v>
       </c>
       <c r="C58" t="n">
-        <v>4089.88</v>
+        <v>6092.28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76775</v>
+        <v>1.77115</v>
       </c>
       <c r="B59" t="n">
-        <v>4.0377</v>
+        <v>6.09983</v>
       </c>
       <c r="C59" t="n">
-        <v>4037.7</v>
+        <v>6099.83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79849</v>
+        <v>1.80171</v>
       </c>
       <c r="B60" t="n">
-        <v>3.98449</v>
+        <v>6.10718</v>
       </c>
       <c r="C60" t="n">
-        <v>3984.49</v>
+        <v>6107.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82975</v>
+        <v>1.83226</v>
       </c>
       <c r="B61" t="n">
-        <v>3.92889</v>
+        <v>6.11433</v>
       </c>
       <c r="C61" t="n">
-        <v>3928.89</v>
+        <v>6114.33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86057</v>
+        <v>1.86282</v>
       </c>
       <c r="B62" t="n">
-        <v>3.87263</v>
+        <v>6.12129</v>
       </c>
       <c r="C62" t="n">
-        <v>3872.63</v>
+        <v>6121.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89175</v>
+        <v>1.89337</v>
       </c>
       <c r="B63" t="n">
-        <v>3.81431</v>
+        <v>6.128060000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>3814.31</v>
+        <v>6128.06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92255</v>
+        <v>1.92462</v>
       </c>
       <c r="B64" t="n">
-        <v>3.7556</v>
+        <v>6.13479</v>
       </c>
       <c r="C64" t="n">
-        <v>3755.6</v>
+        <v>6134.79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95375</v>
+        <v>1.95619</v>
       </c>
       <c r="B65" t="n">
-        <v>3.69534</v>
+        <v>6.14142</v>
       </c>
       <c r="C65" t="n">
-        <v>3695.34</v>
+        <v>6141.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.9846</v>
+        <v>1.98777</v>
       </c>
       <c r="B66" t="n">
-        <v>3.63495</v>
+        <v>6.147880000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>3634.95</v>
+        <v>6147.88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01577</v>
+        <v>2.01934</v>
       </c>
       <c r="B67" t="n">
-        <v>3.57348</v>
+        <v>6.154140000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>3573.48</v>
+        <v>6154.14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0467</v>
+        <v>2.05092</v>
       </c>
       <c r="B68" t="n">
-        <v>3.51244</v>
+        <v>6.16021</v>
       </c>
       <c r="C68" t="n">
-        <v>3512.44</v>
+        <v>6160.21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07776</v>
+        <v>2.08249</v>
       </c>
       <c r="B69" t="n">
-        <v>3.45062</v>
+        <v>6.16611</v>
       </c>
       <c r="C69" t="n">
-        <v>3450.62</v>
+        <v>6166.11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10862</v>
+        <v>2.11406</v>
       </c>
       <c r="B70" t="n">
-        <v>3.3899</v>
+        <v>6.171819999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>3389.9</v>
+        <v>6171.82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13979</v>
+        <v>2.14564</v>
       </c>
       <c r="B71" t="n">
-        <v>3.32831</v>
+        <v>6.17736</v>
       </c>
       <c r="C71" t="n">
-        <v>3328.31</v>
+        <v>6177.36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17061</v>
+        <v>2.17721</v>
       </c>
       <c r="B72" t="n">
-        <v>3.26836</v>
+        <v>6.18275</v>
       </c>
       <c r="C72" t="n">
-        <v>3268.36</v>
+        <v>6182.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20178</v>
+        <v>2.20817</v>
       </c>
       <c r="B73" t="n">
-        <v>3.20808</v>
+        <v>6.18797</v>
       </c>
       <c r="C73" t="n">
-        <v>3208.08</v>
+        <v>6187.97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23275</v>
+        <v>2.23889</v>
       </c>
       <c r="B74" t="n">
-        <v>3.1495</v>
+        <v>6.19303</v>
       </c>
       <c r="C74" t="n">
-        <v>3149.5</v>
+        <v>6193.03</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26366</v>
+        <v>2.26961</v>
       </c>
       <c r="B75" t="n">
-        <v>3.09203</v>
+        <v>6.19792</v>
       </c>
       <c r="C75" t="n">
-        <v>3092.03</v>
+        <v>6197.92</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29489</v>
+        <v>2.30033</v>
       </c>
       <c r="B76" t="n">
-        <v>3.03565</v>
+        <v>6.202649999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>3035.65</v>
+        <v>6202.65</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32536</v>
+        <v>2.33105</v>
       </c>
       <c r="B77" t="n">
-        <v>2.98167</v>
+        <v>6.20723</v>
       </c>
       <c r="C77" t="n">
-        <v>2981.67</v>
+        <v>6207.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35695</v>
+        <v>2.36177</v>
       </c>
       <c r="B78" t="n">
-        <v>2.9278</v>
+        <v>6.21164</v>
       </c>
       <c r="C78" t="n">
-        <v>2927.8</v>
+        <v>6211.64</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38767</v>
+        <v>2.39249</v>
       </c>
       <c r="B79" t="n">
-        <v>2.87632</v>
+        <v>6.2159</v>
       </c>
       <c r="C79" t="n">
-        <v>2876.32</v>
+        <v>6215.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41881</v>
+        <v>2.42321</v>
       </c>
       <c r="B80" t="n">
-        <v>2.82672</v>
+        <v>6.22003</v>
       </c>
       <c r="C80" t="n">
-        <v>2826.72</v>
+        <v>6220.03</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44844</v>
+        <v>2.45393</v>
       </c>
       <c r="B81" t="n">
-        <v>2.77983</v>
+        <v>6.22399</v>
       </c>
       <c r="C81" t="n">
-        <v>2779.83</v>
+        <v>6223.99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48052</v>
+        <v>2.48465</v>
       </c>
       <c r="B82" t="n">
-        <v>2.73184</v>
+        <v>6.2278</v>
       </c>
       <c r="C82" t="n">
-        <v>2731.84</v>
+        <v>6227.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51234</v>
+        <v>2.51537</v>
       </c>
       <c r="B83" t="n">
-        <v>2.68564</v>
+        <v>6.23145</v>
       </c>
       <c r="C83" t="n">
-        <v>2685.64</v>
+        <v>6231.45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54363</v>
+        <v>2.54609</v>
       </c>
       <c r="B84" t="n">
-        <v>2.64186</v>
+        <v>6.23495</v>
       </c>
       <c r="C84" t="n">
-        <v>2641.86</v>
+        <v>6234.95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.5748</v>
+        <v>2.57681</v>
       </c>
       <c r="B85" t="n">
-        <v>2.60054</v>
+        <v>6.23828</v>
       </c>
       <c r="C85" t="n">
-        <v>2600.54</v>
+        <v>6238.28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60467</v>
+        <v>2.60753</v>
       </c>
       <c r="B86" t="n">
-        <v>2.56173</v>
+        <v>6.241470000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>2561.73</v>
+        <v>6241.47</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63454</v>
+        <v>2.63825</v>
       </c>
       <c r="B87" t="n">
-        <v>2.52499</v>
+        <v>6.244479999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>2524.99</v>
+        <v>6244.48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66578</v>
+        <v>2.66897</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48795</v>
+        <v>6.24736</v>
       </c>
       <c r="C88" t="n">
-        <v>2487.95</v>
+        <v>6247.36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69778</v>
+        <v>2.69969</v>
       </c>
       <c r="B89" t="n">
-        <v>2.45081</v>
+        <v>6.25009</v>
       </c>
       <c r="C89" t="n">
-        <v>2450.81</v>
+        <v>6250.09</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72978</v>
+        <v>2.73041</v>
       </c>
       <c r="B90" t="n">
-        <v>2.41594</v>
+        <v>6.25267</v>
       </c>
       <c r="C90" t="n">
-        <v>2415.94</v>
+        <v>6252.67</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76129</v>
+        <v>2.76113</v>
       </c>
       <c r="B91" t="n">
-        <v>2.38324</v>
+        <v>6.25513</v>
       </c>
       <c r="C91" t="n">
-        <v>2383.24</v>
+        <v>6255.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79169</v>
+        <v>2.79121</v>
       </c>
       <c r="B92" t="n">
-        <v>2.35243</v>
+        <v>6.25742</v>
       </c>
       <c r="C92" t="n">
-        <v>2352.43</v>
+        <v>6257.42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82219</v>
+        <v>2.82108</v>
       </c>
       <c r="B93" t="n">
-        <v>2.32256</v>
+        <v>6.25959</v>
       </c>
       <c r="C93" t="n">
-        <v>2322.56</v>
+        <v>6259.59</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8535</v>
+        <v>2.85095</v>
       </c>
       <c r="B94" t="n">
-        <v>2.2958</v>
+        <v>6.2616</v>
       </c>
       <c r="C94" t="n">
-        <v>2295.8</v>
+        <v>6261.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8855</v>
+        <v>2.88081</v>
       </c>
       <c r="B95" t="n">
-        <v>2.27242</v>
+        <v>6.263470000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>2272.42</v>
+        <v>6263.47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9175</v>
+        <v>2.91068</v>
       </c>
       <c r="B96" t="n">
-        <v>2.25513</v>
+        <v>6.26519</v>
       </c>
       <c r="C96" t="n">
-        <v>2255.13</v>
+        <v>6265.19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94945</v>
+        <v>2.94055</v>
       </c>
       <c r="B97" t="n">
-        <v>2.25135</v>
+        <v>6.266760000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>2251.35</v>
+        <v>6266.76</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97931</v>
+        <v>2.97096</v>
       </c>
       <c r="B98" t="n">
-        <v>2.24436</v>
+        <v>6.26824</v>
       </c>
       <c r="C98" t="n">
-        <v>2244.36</v>
+        <v>6268.24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00918</v>
+        <v>3.00296</v>
       </c>
       <c r="B99" t="n">
-        <v>2.2382</v>
+        <v>6.26959</v>
       </c>
       <c r="C99" t="n">
-        <v>2238.2</v>
+        <v>6269.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03904</v>
+        <v>3.03497</v>
       </c>
       <c r="B100" t="n">
-        <v>2.23121</v>
+        <v>6.27075</v>
       </c>
       <c r="C100" t="n">
-        <v>2231.21</v>
+        <v>6270.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06891</v>
+        <v>3.06696</v>
       </c>
       <c r="B101" t="n">
-        <v>2.22394</v>
+        <v>6.271770000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>2223.94</v>
+        <v>6271.77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09878</v>
+        <v>3.09896</v>
       </c>
       <c r="B102" t="n">
-        <v>2.21433</v>
+        <v>6.27263</v>
       </c>
       <c r="C102" t="n">
-        <v>2214.33</v>
+        <v>6272.63</v>
       </c>
     </row>
   </sheetData>
